--- a/USA-Accident/Data/2013_driverslicence.xlsx
+++ b/USA-Accident/Data/2013_driverslicence.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Picrik\Desktop\Kaggle\US-accident\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2CD48A7-1601-4BCA-BCD8-E91A11B43245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED39553-CE29-4271-84B9-FE8BD3950AA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="1515" windowWidth="16560" windowHeight="13590"/>
+    <workbookView xWindow="10230" yWindow="900" windowWidth="16560" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="180">
   <si>
     <t>State</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Alabama</t>
   </si>
   <si>
-    <t>3,859,403</t>
-  </si>
-  <si>
     <t>0.81</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>4,791,450</t>
-  </si>
-  <si>
     <t>0.90</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>Arkansas</t>
   </si>
   <si>
-    <t>2,097,201</t>
-  </si>
-  <si>
     <t>0.89</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>California</t>
   </si>
   <si>
-    <t>24,390,236</t>
-  </si>
-  <si>
     <t>38,332,521</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>3,837,488</t>
-  </si>
-  <si>
     <t>0.83</t>
   </si>
   <si>
@@ -135,9 +120,6 @@
     <t>Connecticut</t>
   </si>
   <si>
-    <t>2,534,090</t>
-  </si>
-  <si>
     <t>3,596,080</t>
   </si>
   <si>
@@ -159,9 +141,6 @@
     <t>Florida</t>
   </si>
   <si>
-    <t>13,670,441</t>
-  </si>
-  <si>
     <t>0.92</t>
   </si>
   <si>
@@ -174,9 +153,6 @@
     <t>Georgia</t>
   </si>
   <si>
-    <t>6,607,016</t>
-  </si>
-  <si>
     <t>0.86</t>
   </si>
   <si>
@@ -201,9 +177,6 @@
     <t>Idaho</t>
   </si>
   <si>
-    <t>1,111,485</t>
-  </si>
-  <si>
     <t>0.66</t>
   </si>
   <si>
@@ -216,9 +189,6 @@
     <t>Illinois</t>
   </si>
   <si>
-    <t>8,261,582</t>
-  </si>
-  <si>
     <t>0.82</t>
   </si>
   <si>
@@ -231,9 +201,6 @@
     <t>Indiana</t>
   </si>
   <si>
-    <t>4,500,403</t>
-  </si>
-  <si>
     <t>6,570,902</t>
   </si>
   <si>
@@ -243,9 +210,6 @@
     <t>Iowa</t>
   </si>
   <si>
-    <t>2,143,665</t>
-  </si>
-  <si>
     <t>0.61</t>
   </si>
   <si>
@@ -258,9 +222,6 @@
     <t>Kansas</t>
   </si>
   <si>
-    <t>2,017,759</t>
-  </si>
-  <si>
     <t>0.78</t>
   </si>
   <si>
@@ -273,9 +234,6 @@
     <t>Kentucky</t>
   </si>
   <si>
-    <t>3,019,283</t>
-  </si>
-  <si>
     <t>0.76</t>
   </si>
   <si>
@@ -288,9 +246,6 @@
     <t>Louisiana</t>
   </si>
   <si>
-    <t>3,278,143</t>
-  </si>
-  <si>
     <t>0.85</t>
   </si>
   <si>
@@ -303,9 +258,6 @@
     <t>Maine</t>
   </si>
   <si>
-    <t>1,011,385</t>
-  </si>
-  <si>
     <t>1,328,302</t>
   </si>
   <si>
@@ -315,9 +267,6 @@
     <t>Maryland</t>
   </si>
   <si>
-    <t>4,140,105</t>
-  </si>
-  <si>
     <t>1.10</t>
   </si>
   <si>
@@ -330,9 +279,6 @@
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>4,765,586</t>
-  </si>
-  <si>
     <t>0.97</t>
   </si>
   <si>
@@ -345,9 +291,6 @@
     <t>Michigan</t>
   </si>
   <si>
-    <t>6,986,587</t>
-  </si>
-  <si>
     <t>9,895,622</t>
   </si>
   <si>
@@ -357,9 +300,6 @@
     <t>Minnesota</t>
   </si>
   <si>
-    <t>3,330,725</t>
-  </si>
-  <si>
     <t>0.64</t>
   </si>
   <si>
@@ -372,9 +312,6 @@
     <t>Mississippi</t>
   </si>
   <si>
-    <t>1,968,907</t>
-  </si>
-  <si>
     <t>0.96</t>
   </si>
   <si>
@@ -387,9 +324,6 @@
     <t>Missouri</t>
   </si>
   <si>
-    <t>4,280,438</t>
-  </si>
-  <si>
     <t>0.74</t>
   </si>
   <si>
@@ -411,9 +345,6 @@
     <t>Nebraska</t>
   </si>
   <si>
-    <t>1,374,529</t>
-  </si>
-  <si>
     <t>0.75</t>
   </si>
   <si>
@@ -426,9 +357,6 @@
     <t>Nevada</t>
   </si>
   <si>
-    <t>1,756,095</t>
-  </si>
-  <si>
     <t>2,790,136</t>
   </si>
   <si>
@@ -438,9 +366,6 @@
     <t>New Hampshire</t>
   </si>
   <si>
-    <t>1,061,433</t>
-  </si>
-  <si>
     <t>1,323,459</t>
   </si>
   <si>
@@ -450,9 +375,6 @@
     <t>New Jersey</t>
   </si>
   <si>
-    <t>6,081,386</t>
-  </si>
-  <si>
     <t>0.87</t>
   </si>
   <si>
@@ -465,9 +387,6 @@
     <t>New Mexico</t>
   </si>
   <si>
-    <t>1,456,500</t>
-  </si>
-  <si>
     <t>0.79</t>
   </si>
   <si>
@@ -477,12 +396,6 @@
     <t>1,632,983</t>
   </si>
   <si>
-    <t>New York2</t>
-  </si>
-  <si>
-    <t>11,210,783</t>
-  </si>
-  <si>
     <t>1.07</t>
   </si>
   <si>
@@ -495,9 +408,6 @@
     <t>North Carolina</t>
   </si>
   <si>
-    <t>6,822,902</t>
-  </si>
-  <si>
     <t>0.88</t>
   </si>
   <si>
@@ -516,9 +426,6 @@
     <t>Ohio</t>
   </si>
   <si>
-    <t>8,030,421</t>
-  </si>
-  <si>
     <t>11,570,808</t>
   </si>
   <si>
@@ -528,9 +435,6 @@
     <t>Oklahoma</t>
   </si>
   <si>
-    <t>2,418,307</t>
-  </si>
-  <si>
     <t>0.71</t>
   </si>
   <si>
@@ -543,9 +447,6 @@
     <t>Oregon</t>
   </si>
   <si>
-    <t>2,773,373</t>
-  </si>
-  <si>
     <t>3,930,065</t>
   </si>
   <si>
@@ -555,9 +456,6 @@
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>8,896,590</t>
-  </si>
-  <si>
     <t>12,773,801</t>
   </si>
   <si>
@@ -573,9 +471,6 @@
     <t>South Carolina</t>
   </si>
   <si>
-    <t>3,536,404</t>
-  </si>
-  <si>
     <t>0.91</t>
   </si>
   <si>
@@ -591,9 +486,6 @@
     <t>Tennessee</t>
   </si>
   <si>
-    <t>4,605,100</t>
-  </si>
-  <si>
     <t>6,495,978</t>
   </si>
   <si>
@@ -603,9 +495,6 @@
     <t>Texas</t>
   </si>
   <si>
-    <t>15,447,273</t>
-  </si>
-  <si>
     <t>26,448,193</t>
   </si>
   <si>
@@ -615,9 +504,6 @@
     <t>Utah</t>
   </si>
   <si>
-    <t>1,661,219</t>
-  </si>
-  <si>
     <t>2,900,872</t>
   </si>
   <si>
@@ -630,9 +516,6 @@
     <t>Virginia</t>
   </si>
   <si>
-    <t>5,602,765</t>
-  </si>
-  <si>
     <t>8,260,405</t>
   </si>
   <si>
@@ -642,9 +525,6 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>5,301,630</t>
-  </si>
-  <si>
     <t>0.84</t>
   </si>
   <si>
@@ -657,9 +537,6 @@
     <t>West Virginia</t>
   </si>
   <si>
-    <t>1,177,136</t>
-  </si>
-  <si>
     <t>1,854,304</t>
   </si>
   <si>
@@ -669,9 +546,6 @@
     <t>Wisconsin</t>
   </si>
   <si>
-    <t>4,171,427</t>
-  </si>
-  <si>
     <t>0.80</t>
   </si>
   <si>
@@ -690,19 +564,19 @@
     <t>United States, total</t>
   </si>
   <si>
-    <t>212,159,728</t>
-  </si>
-  <si>
     <t>316,128,839</t>
   </si>
   <si>
     <t>250,892,271</t>
+  </si>
+  <si>
+    <t>New York</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1050,11 +924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,17 +960,17 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>3859403</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>798</v>
@@ -1107,13 +981,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>528873</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>528.87300000000005</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="1">
         <v>735.13199999999995</v>
@@ -1130,19 +1004,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4791450</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="1">
         <v>723</v>
@@ -1153,19 +1027,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2097201</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>709</v>
@@ -1176,19 +1050,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24390236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1">
         <v>636</v>
@@ -1199,19 +1073,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3837488</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>728</v>
@@ -1222,19 +1096,19 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2534090</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <v>705</v>
@@ -1245,13 +1119,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1">
-        <v>723.65700000000004</v>
+        <v>723657</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>925.74900000000002</v>
@@ -1268,13 +1142,13 @@
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>405.55500000000001</v>
+        <v>405555</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1">
         <v>646.44899999999996</v>
@@ -1291,19 +1165,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>13670441</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1">
         <v>699</v>
@@ -1314,19 +1188,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6607016</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1">
         <v>661</v>
@@ -1337,19 +1211,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1">
-        <v>915.03300000000002</v>
+        <v>915033</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1">
         <v>652</v>
@@ -1360,19 +1234,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1111485</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1">
         <v>689</v>
@@ -1383,19 +1257,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8261582</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1">
         <v>641</v>
@@ -1406,19 +1280,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4500403</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1">
         <v>685</v>
@@ -1429,19 +1303,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2143665</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1">
         <v>694</v>
@@ -1452,19 +1326,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2017759</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1">
         <v>697</v>
@@ -1475,19 +1349,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3019283</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1">
         <v>687</v>
@@ -1498,19 +1372,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3278143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1">
         <v>709</v>
@@ -1521,19 +1395,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1011385</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1">
         <v>761</v>
@@ -1544,19 +1418,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4140105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1">
         <v>698</v>
@@ -1567,19 +1441,19 @@
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4765586</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1">
         <v>712</v>
@@ -1590,19 +1464,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6986587</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F24" s="1">
         <v>706</v>
@@ -1613,19 +1487,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3330725</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1">
         <v>614</v>
@@ -1636,19 +1510,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1968907</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1">
         <v>658</v>
@@ -1659,19 +1533,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4280438</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F27" s="1">
         <v>708</v>
@@ -1682,16 +1556,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1">
-        <v>766.71600000000001</v>
+        <v>766716</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E28" s="1">
         <v>816.49199999999996</v>
@@ -1705,19 +1579,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1374529</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F29" s="1">
         <v>736</v>
@@ -1728,19 +1602,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1756095</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F30" s="1">
         <v>629</v>
@@ -1751,19 +1625,19 @@
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1061433</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F31" s="1">
         <v>802</v>
@@ -1774,19 +1648,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6081386</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="F32" s="1">
         <v>683</v>
@@ -1797,19 +1671,19 @@
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1456500</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="F33" s="1">
         <v>698</v>
@@ -1820,19 +1694,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>179</v>
+      </c>
+      <c r="B34" s="1">
+        <v>11210783</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="F34" s="1">
         <v>570</v>
@@ -1843,19 +1717,19 @@
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6822902</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="F35" s="1">
         <v>693</v>
@@ -1866,13 +1740,13 @@
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1">
-        <v>513.83799999999997</v>
+        <v>513838</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1">
         <v>723.39300000000003</v>
@@ -1889,19 +1763,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>130</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8030421</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="F37" s="1">
         <v>694</v>
@@ -1912,19 +1786,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>165</v>
+        <v>133</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2418307</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F38" s="1">
         <v>628</v>
@@ -1935,19 +1809,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>170</v>
+        <v>137</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2773373</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="F39" s="1">
         <v>706</v>
@@ -1958,19 +1832,19 @@
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8896590</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F40" s="1">
         <v>696</v>
@@ -1981,16 +1855,16 @@
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B41" s="1">
-        <v>749.23199999999997</v>
+        <v>749232</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="E41" s="1">
         <v>863.702</v>
@@ -2004,19 +1878,19 @@
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3536404</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="F42" s="1">
         <v>741</v>
@@ -2027,13 +1901,13 @@
     </row>
     <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B43" s="1">
-        <v>603.64300000000003</v>
+        <v>603643</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1">
         <v>844.87699999999995</v>
@@ -2050,19 +1924,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>186</v>
+        <v>150</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4605100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="F44" s="1">
         <v>709</v>
@@ -2073,19 +1947,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
+      </c>
+      <c r="B45" s="1">
+        <v>15447273</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="F45" s="1">
         <v>584</v>
@@ -2096,19 +1970,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>194</v>
+        <v>156</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1661219</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="F46" s="1">
         <v>573</v>
@@ -2119,13 +1993,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="B47" s="1">
-        <v>543.05700000000002</v>
+        <v>543057</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1">
         <v>626.63</v>
@@ -2142,19 +2016,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>199</v>
+        <v>160</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5602765</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="F48" s="1">
         <v>678</v>
@@ -2165,19 +2039,19 @@
     </row>
     <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>203</v>
+        <v>163</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5301630</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="F49" s="1">
         <v>760</v>
@@ -2188,19 +2062,19 @@
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>208</v>
+        <v>167</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1177136</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="F50" s="1">
         <v>635</v>
@@ -2211,19 +2085,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>212</v>
+        <v>170</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4171427</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="F51" s="1">
         <v>726</v>
@@ -2234,13 +2108,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="B52" s="1">
-        <v>421.47300000000001</v>
+        <v>421473</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="D52" s="1">
         <v>582.65800000000002</v>
@@ -2257,19 +2131,19 @@
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>219</v>
+        <v>176</v>
+      </c>
+      <c r="B53" s="1">
+        <v>212159728</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="F53" s="1">
         <v>671</v>
